--- a/마고의바다.xlsx
+++ b/마고의바다.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.197.51428"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.228.52576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -791,7 +790,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -800,7 +798,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -809,7 +806,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -818,7 +814,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -833,7 +828,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -848,7 +842,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -863,7 +856,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -872,7 +864,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -883,7 +874,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1035,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,9 +1042,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1365,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1446,7 +1433,7 @@
       <c r="A9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1454,7 +1441,7 @@
       <c r="A10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1462,7 +1449,7 @@
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1470,22 +1457,22 @@
       <c r="A12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/마고의바다.xlsx
+++ b/마고의바다.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.228.52576"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.197.51428"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>마고의 바다</t>
   </si>
@@ -449,6 +449,84 @@
   </si>
   <si>
     <t>한국상담학회 1급 (No.1201) 2급(No 6225)</t>
+  </si>
+  <si>
+    <t>마고의 바다 상담연구소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수련생 수퍼비전, 교육 안내 홈페이지 </t>
+  </si>
+  <si>
+    <t>마고의 바다 심리상담연구소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주 묻는 질문 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자주묻는 질문 </t>
+  </si>
+  <si>
+    <t>질문 #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수퍼비전 신청은 어떻게 하나요 </t>
+  </si>
+  <si>
+    <t>답변 #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지 아래 수퍼비전 가능한 일정을 확인하고 신청서를 작성해주세요. 바로 확인은 못하지만 최대한 1-2일 내로 답변을 드리겠습니다. </t>
+  </si>
+  <si>
+    <t>질문 #2</t>
+  </si>
+  <si>
+    <t>비용은 어떻게 되나요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개인 수퍼비전, 소그룹 수퍼비전 상관없이 6만원입니다. </t>
+  </si>
+  <si>
+    <t>답변 #2</t>
+  </si>
+  <si>
+    <t>질문 #3</t>
+  </si>
+  <si>
+    <t>답변 #3</t>
+  </si>
+  <si>
+    <t>보고서 작성은 어떻게 되나요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자유로운 형식으로 5~15페이지 내외로 작성해서 보내주세요. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수퍼비전 신청과 진행은 어떻게 하나요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지 아래 수퍼비전 가능한 일정을 확인하고 신청서를 작성해주세요. 바로 확인은 못하지만 최대한 1-2일 내로 답변을 드리겠습니다. 1)일정확인 2)신청서 작성 3)확인후 일정 협의 결정 4)보고서 메일로 발송(ssem73@hanmail.net) 5)비용 입금  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자유로운 형식으로 5~15페이지 내외로 작성해서 메일로(ssem73@hanmail.net)  보내주세요. </t>
+  </si>
+  <si>
+    <t>질문_본문</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블로그_이름 연락하기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수퍼비전 신청서 </t>
+  </si>
+  <si>
+    <t>연락_문구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">삭제 </t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1379,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1387,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,6 +1619,86 @@
     <row r="26" spans="1:2">
       <c r="B26" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
